--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/25_Denizli_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/25_Denizli_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4533FE-461B-4397-A165-E8313E5E8C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6ECD466-6EAC-4ABD-9967-62D7944FC72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F38611CD-6D47-493D-83EC-EB9C4155410C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9120DCFB-4B3D-4E88-B402-7AB35CBC4B32}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{3114B9A0-F0AB-4CAA-A834-55E6BD8BCC23}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{2A8367D7-28D9-4BF8-9E7D-A89A0A2C1185}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{552BB661-D674-462E-B2F7-899DC6F55505}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{346E2723-D513-46FC-8001-83748BF03228}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{29D0BA7B-6C96-4FD0-B4BF-7D2AEE55F3B9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{CC2A41DE-BC2D-4C70-97E8-995C0D25B5EF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{4D934D79-2B8F-4A4A-AA4B-774987D885F9}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{009D78D6-983C-4B16-9FEC-F87881B6D29F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D03044-FC6E-4E31-8B81-A640C1032445}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC5E95B-867E-4129-8E6B-AD11B51DDC2A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2493,18 +2493,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3EE055E1-C521-4B7C-8683-C031B734DC49}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0FAB37BF-058C-4D37-8E5D-D6663CB986A3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F1B559F4-C20B-40EE-8365-0225E5B26B04}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C01DD01E-67A4-44AA-86B6-C6E1E482D5B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F9AC6064-C4EF-4035-BE6D-8832B943D98D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B629A256-BC79-4D23-86E8-1BA2ECB0EA71}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7B91A838-DE64-4A1F-AC6E-CD8E5AF42ED4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3848F958-C1A8-4987-AE41-418563E14A68}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{375B686D-A977-4D51-8618-CE8858A8BCAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7EC51DA1-CAFA-48BC-95A6-AE939E6F943C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0A9E75E6-61C7-4F27-839E-2275BFD84124}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{69F53F38-1526-4842-B036-23D22315BC45}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{33F6944C-B39E-4DE9-9F99-AF99CE5A9FD0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{46A7E063-CF59-46EF-9A5C-206368844378}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8A0A1F68-F560-4CC5-AB37-1AB0DAA1969C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{17CD4BCA-C639-4307-BD2A-0C6B87B7AF19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{08B52F6C-6B30-4148-85FD-E67A8E8B272B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{091E22A9-3CF5-4529-B78D-5CF03DDE7EBB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FF1F828D-B68F-42AE-A484-2F8F9A1D17C3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2041FEE3-489B-4602-8F91-A52ECB469B7B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7BDCE877-2ED0-47E3-A96B-F3505307BB27}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E4493E60-9C07-4F56-B9B3-0C8D413431DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ECEEFCB5-6634-4B45-AFD4-B49615072F1D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3D0B638E-F774-43BC-8DBB-BB7EA8FC27DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2517,7 +2517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354BC8E1-4468-4A5D-B136-AF27C68A4F41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556816AF-131B-412C-9F53-A946FC2F7C30}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3756,18 +3756,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{74135DAD-25FA-4E8B-8491-74512542A61F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2D16ED59-3EE1-4432-AE92-02BC2809E6FA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{611D66BE-48B8-4072-B83E-911A4889172E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{314C9F21-C05E-4177-8098-3B55291543AD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3E4B9FA4-CFBF-4B0E-81B2-636423880DF9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F0651D38-36F9-4A60-8F8A-FC732027344F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6DBB44C1-71B3-4250-8B95-FBFA529F6EB2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EC7637C1-D296-44E6-B292-F1E3EA6E361A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8A3CF464-1F05-4536-9EF7-B2E7D915EAD7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{59DF48A2-5149-46DC-9CD3-6B751080CD0C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D498E2F6-E2FA-43C3-8765-35B085FB338B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{81980DF5-8C85-49BB-9D7A-E516A7E27DEF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D26EE979-3DA1-4EA5-951B-9DD7B3DBEE79}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7DE14D61-00F5-4F2C-9FD2-B71D7C4A86C0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D81EEDDF-0F33-4469-A73B-06BE9E4F577E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D21B4B2A-296E-46CA-A0FD-EE0BD3B18A72}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E6628342-118E-44CA-AE58-DFCF537233D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B3F324D5-B404-4643-B387-240695C86914}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{883121DE-FE97-462A-868B-732377199F5B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CA65C13A-72C6-4977-9757-F31016808417}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{98BD8BC5-6B70-430F-AEF3-CBAD630E0D01}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1D62DE04-C72D-4768-B699-4500E64F904A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8CA756FB-1E1A-4D67-805B-2D28467CF114}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{397769AF-4774-422C-B7D9-28AFA2A9CFD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3780,7 +3780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33F2DD-6DEC-4B1C-AA1D-46AE25626854}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AEC157-A938-4DA3-BA4C-D59590DF43F9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5015,18 +5015,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{65A98585-AB72-4D98-B3EB-965126396346}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7C96AD86-8D87-4D7B-8264-52BDE3F8AB97}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0F9071AA-3A32-4525-B93B-6CAAD9413240}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EDBD20B2-9D35-42C5-9404-B16248FCF295}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E19E49E5-71E0-4818-937A-5B45CB200A87}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BA3DFB1D-F258-4C09-A6A6-545B8584233B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C4492A3E-574F-4776-99C8-9E4246679921}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{69BE4DE1-D78B-47B6-BE56-142E46D498E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BD009DAB-DF51-48D9-847C-DBACDA5A3535}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{94C796E7-30A4-499D-8363-B17180ADAE3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8BD704A9-3DB2-45D8-A0C5-673B713A6BDA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BC890BCD-F0C0-4121-AB85-C6F10A5DA790}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{46BDAC6B-63C8-4DFA-94B4-EA9DA0CC8A7D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F8C0CC75-B893-415C-A6BE-0C465BA3AF7B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A2F51074-18B5-4F05-AB05-BD5DA6A890CE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E323CD1D-BCBA-433F-8315-4F39BAD97AB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A1088E65-C3A8-4BC3-946D-E73CEDC93CF1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{01871907-6B37-4C96-8427-80D974A3357A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A64F21CF-7071-434B-8F7A-7D499BF87C19}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{25A01EBA-B35A-41E3-9049-2A73EBE3933D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4EC2B70F-DD9E-40EE-B587-51D4820816C0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E8AC9E0B-9EA1-435D-86F1-4F7269DDCE2C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4F8FF5CB-A62C-41C5-8082-23B96436312D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E5466ED2-32EC-4A9F-8C07-16B17BE7AB4E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5039,7 +5039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F2DEE9-E671-4F69-A4EE-E83B6C1EDEC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0D849B-DF32-48A8-B38C-17D189BF2E07}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6260,18 +6260,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{365D5C82-684E-4FD8-AA94-D8765924E10E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A4F8698D-06D4-42BC-A223-38FD83F55AA2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D185BE1B-54A9-4D7C-9F4F-E14E620EF647}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F23CFBD9-C0EE-4FE4-80B6-B7F4BBB98650}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{68AE7599-09E4-4E4D-8BA8-27BA311E3779}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8C6097FA-CE3A-47C9-B0A6-184E5FE2233C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FDB7920C-9421-440A-AB32-B10CC5D985A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{67AE3155-D73A-40F3-80B1-06235D93596F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CAE679A4-A8D7-4E0D-9923-45494D93E3B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{494315C4-6F7C-425A-B337-1AA3A12F2932}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D8DCDF91-7CAA-4EA4-BD73-0C02A2BC30DC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5CBEB946-BFFC-4174-8677-C0EAB93E1018}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{84F62DB8-10A8-4BDE-B569-5DE67BCBFCE6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7B32BE65-0B45-44D0-93F3-2C6C7BF98CAF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{90E21641-1DB6-483B-A03D-A22806EA00D8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{82143D82-237B-4F63-84DF-E7A54AAB6C19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8F160B8A-7D51-4466-8AC5-F3560764242C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AB197253-19FD-49EB-9DE1-A5EEA6FDE708}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{460EF990-3BD2-41E9-B2B4-3379A74FD30E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{65382FAA-A49C-49E7-8854-5F2AADD3B60B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{872E6800-0A8D-4CE6-8DA2-26AD56BF9D48}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8FCE456D-721F-42BE-B6B4-9C0233717D96}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0C015477-B305-4FAE-9B41-2B70EDDA426C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CF241EC3-19BE-4080-8602-EADD58A8364F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6284,7 +6284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2BF08B-CAB3-4153-AAD6-0E987608A630}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E2ABB2-FC8D-439A-86F1-0CAE8FF54705}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7543,18 +7543,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C9A5D7ED-6CB1-4114-B49F-B36256757DBC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E7153214-7987-4103-816E-E4A41386A9A6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{48E66AAC-3D3A-41C5-AFFB-FD79F454F993}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{57C2C123-137E-4681-A00A-9F3D29FF7967}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{45C4FD6A-6C18-4E89-AD53-EAA66B1FA7F6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CF79FC80-0F2A-4A4B-B5B8-BCDBAE16157C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9582C797-534A-472E-B934-0F9494CFCC20}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7C61208F-580F-4C23-AB8D-B0BC4199E0B5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{00D816C3-1FE9-4F3D-8335-F69E05729016}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5DE26F64-3962-4FAD-B8E9-371BAE367EAD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9D7AB2F6-84B4-453E-980B-5E1138150DB5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9DAE0289-744D-4035-A5A7-19541EDEECB8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CFF8AD95-A0FB-4CC6-8168-04F131ACBBDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{002C2032-0D46-4D20-82BD-529AF8911092}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{05928761-1E03-4EBD-818E-1A02B01D8B70}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6DBC7D3F-517C-4DCB-A202-3EBEC18BA8F5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D31EEBA5-C616-4BB5-8E86-0E8BBCA17BED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A070A13F-3DF0-424F-AE7E-856BEAEAFB66}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2B37AD02-5CF4-494E-BF40-D00F16D6EF6F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{87BC3D62-A64D-4D4F-A89B-7CB255223F98}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1B2B2BEC-A96C-434B-B27D-4396E6209303}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CEE3442F-12AA-473E-B39B-BD2B777ADCE7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CB37C977-BF0E-4B2D-B033-B956F17BA45B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F3398BB9-213F-4AC1-8D30-7C5046B5D1B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7567,7 +7567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617DB0AB-9D4D-438D-8C86-D8052600F3C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B019642D-3033-45AB-B63E-36163FC760E8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8828,18 +8828,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{708FC61D-7EEB-46D7-A681-D67FCDE4BCE6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2958D8D6-A3A9-43D2-83DA-BD8D26B8C340}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{36EB6826-B4E3-4FF6-AF63-B623E74D2E57}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E5AF08E0-926F-4B27-8FAF-36F115F9B5A0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4B810575-0EC3-4BB4-953B-7069A12AB390}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{16D9E0FF-8E87-48D9-AFD9-C4740A59CE15}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{22785967-43EC-4DA5-B3F2-520DA1729092}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4432F8BE-2F09-4251-99A1-96EC79A5E3A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C07BADF3-8D78-4DA2-AE12-DEAD354D2BED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{35770804-3079-4694-8B1C-60831E130465}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BF2546F1-2A00-4958-AD7D-8FE24BF9CBA8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EBDC9F99-4815-4F05-BE55-E219D152DBF2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B959C8DB-A7EE-4BB3-827B-763C99C3824D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7B851826-F507-4EC1-A09B-2295A5ED4BC0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E4CCE0B4-35A6-4503-9405-FE53DBC80415}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8A37706C-F006-4E09-8F18-5116C0C89076}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2CBA4F3E-EA57-4916-A358-F1D2F88C2D03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{13A9F63F-FA63-4E76-9211-E31393CB0F6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4ECEA425-87F8-48A8-A1CE-E422482F99B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{213CF230-EAD6-4C56-AC40-FE8016DC9DAD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F96B25C2-7E23-47F1-962B-87DB74E4CE48}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9A1CED0C-8D86-4CFA-B50C-8FA9A50E34AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8ECBD1FC-AFDA-44CB-85C4-D0A2C980271B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0C504066-1239-4448-A5E7-AF6C1C535C13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8852,7 +8852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD0F074-C624-488D-8545-879709467731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F916DC20-8207-4339-9378-ADD90DBAA500}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10111,18 +10111,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A6250332-E1AA-4D41-9237-8A2CD74BC2A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{067C235D-8AB4-440F-BFAB-6A0A791E15FB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B67BB418-A565-44FE-8CFA-B6BE5A5E8ADE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A236D57F-3678-461B-88ED-C1C319B418F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CF54AFC2-4FE9-4719-9601-B4AE507EC584}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D264F9F2-2E35-4F90-A302-0E0AC38E450A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A3C64523-8497-4C76-B62D-F35B09177621}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CE92503F-E98A-4F6C-A1EE-B077AE029700}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2A777FDA-6A34-411C-B9A9-7FCB331BC72E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2D94CA98-9047-4A32-953A-764E4085596E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1CB205AB-BF8A-4909-BB15-FF45E930FAFF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D4C7296C-D504-4312-B584-16AAD558DB7F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{976EC570-7E7A-4C3E-A94F-9690DF5401B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{554194B4-7B79-452C-BAF8-CF2E8691EA48}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D940248B-1E72-48D9-B5B1-35CFEF634969}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AB91C7A6-0BA9-4728-98DD-0DDAC16084B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EA2498EC-FBCC-4AFF-83EB-8F28A1F44B8B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{58517E53-C090-45CA-BCF9-D7958B995110}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A798D2D2-6B55-4633-A075-0D621603F925}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C9BC3093-C137-4875-BA93-47C14E206847}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{31F18DF3-8420-4F0E-8BCB-4AB1D10C5F18}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0AFCB0C3-68BF-454E-90E4-FF9C09AD2815}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C157F30C-81B5-41D4-A039-7A277F8510DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{01D7F18B-2569-4A7B-AB18-3C83391C2765}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10135,7 +10135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49BDE92-C250-4F62-98E6-5201C5A85F13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED64A6C9-AB22-4DFD-9C39-2EF5C95EC7B7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11392,18 +11392,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AC702E89-F006-458C-A367-D9A522AA771D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E53D4A8D-AF67-45A4-AA10-E87B1406076E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{92D92ACF-BABC-44DE-BD9E-BA026BC33786}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F93F0FC8-4DDF-41AE-A1DF-CC3226171BCC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{437C6CEF-C980-4F6C-9ED0-63E976739E5F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4A64323F-602F-438A-82FE-02A639D7692E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AC0FF4D3-57FF-48B2-B7DD-15C9F04CA674}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8AEB843A-6532-4255-96DB-76A141AC605D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5DF19A9E-8348-4D3E-B449-4A332EA45E8D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{94BB0FA8-AC5E-4A44-9E36-0ADE5884AEC0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B6F93C9A-9635-41D8-9C26-E9F21BC16933}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{95369233-9CC4-436E-9A17-4133ABB4BBDF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C5133BB4-2647-46D9-A45B-13F36955BB45}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6F80D261-4EA6-4149-B55B-05640FBC6798}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{29BEBCC6-7E30-468F-88A7-7AEDA114DB4D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{39FCE79C-E1EA-4680-A147-F42F9253D0B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E4F35D99-6BC2-4E13-943F-DECF5D05D5A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6AF798D2-7656-4AC5-B51F-A530E60FD782}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7357983C-D827-49EE-8572-8CF8C83334DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{83D1F01F-1F09-4DEC-BB60-7C6170EF746B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6089A4C7-C1F7-400D-8E14-30FEFCA08718}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CAFC5DEC-2703-4AD0-893A-F7E602DAA4A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F2426E7B-D0C7-48C7-B01E-AA50244F7CF6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F731CED6-3D33-415E-8DCF-DE5A9B8CBECA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11416,7 +11416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE292AD0-DE25-47A2-88A7-5F486A9E0AE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906000FD-01A0-4326-B179-695BEEDDF35F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12669,18 +12669,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A1004677-4B83-416D-B8BD-4AA35FA98A9C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D7367461-EA3F-4560-A7CF-351149AEBE5E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{27547362-1799-4BF4-A37E-7A4B8F0B7E26}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6867750F-98C5-4209-A77E-BE83AF51681F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FEAB13B1-A8C4-4623-9247-759F062EA874}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{296C4BC0-0F63-4047-AF6D-5CE4EDF70FD6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E0726F8D-F1D3-46E1-BF29-270091193E1A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{53873A09-F079-4472-87C2-9CFE4385129B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E5BE872A-12D9-41D5-A291-15D3B6DC198E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C93E8881-23FC-4DC0-8EAB-65998C63DCBC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8071E69E-F10F-4517-8B80-AB4F59C43DFB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B69E68F9-2C04-47FE-BE81-AE1ECD5EE84C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F2A5C143-E168-4AB5-80F0-3B38FE85CFE8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8CA4F6E9-2C68-40E5-B7C3-BFCF00940E19}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{48998BDD-FF2A-403A-9E10-6A45D9CC0F7A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{337D6A93-57BE-4CCD-BCD6-A5534A5204C6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EC5A719F-129F-4EF7-A6E7-AEB3783184FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{823F7DCA-5F14-4102-845D-914B60C69610}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B1165609-0F95-4A35-A067-97CE53783D4B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CB1F0650-B162-4985-9443-33E4FD3DC86C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1BBD7577-32C0-41B2-95E7-43D8D00B54C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FA06A465-E1D3-4836-9057-E23A37A9D620}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4C0ACA9B-AF8C-4ABA-9B54-65F9822DF407}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9285B084-A301-48F2-951F-7E8009F2CC02}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12693,7 +12693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D89C578-6C41-466A-BECB-06D787132FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABECCC8B-59B0-4FCB-AA4F-777D3C142ECE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13946,18 +13946,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1452A38F-946B-4B98-927F-DC6A1A3F81EA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B9C7E18B-EF0B-4DD5-9863-D8C7C3CE987A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4FBE90C0-09A9-46C1-803A-DD7739442130}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{21963390-4CCE-4E3A-81BB-CFC0B83CD032}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{06FF877B-0255-43F2-B101-55A3AD5DDC11}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{119E1DBD-11DB-4983-85D5-50E2BD9FAE41}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3CDB54AE-1A4B-4C21-93A0-99AE4746AD1E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{45CD2765-5214-4821-ADC8-C2DD31D81B3B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D00D870B-CCC5-49BD-B91D-C2A784C4B240}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D0BE8684-439F-4890-B601-085CA43B51D8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7FA6C553-761A-440C-B942-BBCEDD6D2DF6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C804DA50-0850-45CE-B131-8286F3EE784F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{513FEC9E-6721-4E89-824B-4468B2032B50}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{415C7CF9-128C-40FE-B72E-B1E9C73F2FF6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{80851390-82B3-4EF1-957D-F24A47EF6AEB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C8B36EAD-2258-47D6-B448-51749D53EB54}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{79C1B5C7-A528-4E6A-B46D-63F87E4EB65E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8ED95FFA-F5EA-425F-99CE-2A47D9A568ED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C22BA3C0-D5EF-466C-9175-5D4386A1501E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C3668F8A-D632-4D74-966A-041851C0275C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{73CFFE04-E951-43D3-8109-7E46024D3304}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BA4DDD5A-B005-4AC8-B2B7-4DBEA37306C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3D3F5BB1-34EB-4E91-94F9-887B4A4234BA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1CD5FEC0-F5BD-411C-9E1A-8F39E59F4018}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13970,7 +13970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D70E934-136D-4BD9-8BA2-9BB58B467B49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38073F91-4069-4EE6-94A4-DF44CDA27255}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15223,18 +15223,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{606D895A-0B61-4DBD-93B8-706688186387}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A171E9AC-99A8-4186-AEEA-6B0085C3ACA3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{71E1B1B0-7431-4951-9F5A-67DA9538392F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E8654578-5B82-4208-A3BB-D23DC170E01F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{55CEA043-7F65-4BEB-9C9C-CF9A7F7FE96E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7933A5C6-E093-4E58-BA1A-49B671890BC1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D23BF26A-00D1-4B67-97FE-E5F14927249D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{084F08B6-C013-478D-A57D-766D535E8B65}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6FC2A8AA-B895-43F1-8F0B-897A5CD2341A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0B41EB11-5887-4AA0-8B92-AEE184B2B917}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6F5D60CA-6623-481F-B832-85D7F6BBBA0A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B88ED655-568B-4C46-A564-EAF6DDA133B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BE2217D2-840B-470A-8EB2-D60A81945A95}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CA7E9A7F-9518-4DA6-92F0-DE9F6E06DB9B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{47DF5857-C071-40B3-A1DA-6F020B0E9E9E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{553A20AF-95D8-412C-A2DD-4FDF8BEC19E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{66B51644-4C8A-4EBF-8A8A-AAE9ACBBA3CA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{262687BE-6A94-4D86-A253-D37206EC1B18}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{884274CA-D496-4FAF-AF3A-365D59BDE053}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{10D8B8E3-67CB-48EF-B74A-F6E8533672CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DABA7DB7-552C-4E05-8A28-15D77431E543}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9A7EA83C-0812-423B-BE6C-6201657EB26E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EE94EC24-CA6C-44EE-9ED8-CE5ED64D52CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AA0B902C-1EDE-417A-822C-F8AFB2FB6856}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15247,7 +15247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7975F891-60FA-48F8-A5A7-5E7C615DCBC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FFFCD1-DF5E-4D50-B2AC-3809B2680028}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16496,18 +16496,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C6506972-2495-4509-BE96-1CECD8037EEC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F44A4BE4-F35A-4710-AACF-1803CF05A6EB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1CCB8D3A-B602-476F-9E8F-C01516E4A03D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2D5A6FCF-6A0F-4050-A817-4A86A07EC065}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{65CE9D72-CA10-4E6E-8708-A67600E12721}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0DA5E44D-381F-4DB2-91D3-FC210E529859}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2360DF33-E59F-4CD3-BBFF-83D07E6EC064}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{14BB7FF6-A35C-4FF2-B399-653FEAFBE6F2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8BD5E559-4FDC-421C-B2D5-DE0BC511CC28}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2890E375-F02C-4345-9CD9-B4176518E51B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D749F4A3-A65E-4609-817A-4CDF7CFED0AA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{839B020E-E146-4BDF-8DF5-D196B0FF1D4F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C9B63064-DFA8-4D2B-966F-FE7BFEDC6F43}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{22563DA1-63BB-46C9-9B11-9185F9D126B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C9436FCE-2E76-47D9-A666-C34629CD0256}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1E495A9D-FDA1-4C16-B37A-E225095C1C3F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5F034888-6255-4CEF-8B1B-B4ED91C761FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E8F15E29-5897-4CA4-9C05-85CDBE1A011E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7012DC8C-5208-47DA-97F7-1550FD6AAC93}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AB968265-B3DD-44E6-A04A-0FCA594AD0CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{622263D3-A982-4B80-BADC-A9D7FF30D14A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5444F0FE-77D6-4696-9FA1-1CC8894DC5A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2808C00F-E20D-40A9-B94B-C514EFA3A6B4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{83994B8D-4B42-4677-B3D9-93B31CB018CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
